--- a/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,25 +257,13 @@
     <t>HTML &amp; CSS</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>Javascript I</t>
-  </si>
-  <si>
-    <t>D, B1, B4</t>
   </si>
   <si>
     <t>Gegevensrepresentatie &amp; Ontwerp</t>
   </si>
   <si>
-    <t>A1, A2, B2, C3, C4, E1, F1, F2, K1</t>
-  </si>
-  <si>
     <t>Databases</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>De domeinen A12 en A13 zijn niet specifiek aan een PTA-onderdeel gekoppeld maar komen gedurende het jaar aan de orde.</t>
@@ -284,28 +272,16 @@
     <t>Computational Science</t>
   </si>
   <si>
-    <t>A5, A6, A7, B3, R, J</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
-    <t>A11, N, E, F3, F4, L4, Q3</t>
-  </si>
-  <si>
     <t>Keuzeproject</t>
-  </si>
-  <si>
-    <t>A3, A4, A8, A9, A10</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
     <t>OO Gamedesign</t>
-  </si>
-  <si>
-    <t>J, P, B3, F1</t>
   </si>
   <si>
     <t>Project Data</t>
@@ -1325,7 +1301,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1352,9 +1328,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1369,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1390,9 +1364,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1407,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -1426,9 +1398,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1444,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -1465,9 +1435,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1475,7 +1443,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1568,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2227,7 +2195,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2341,7 +2309,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2496,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2515,9 +2483,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2526,7 +2492,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2547,9 +2513,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2558,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2577,9 +2541,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>74</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2665,7 +2627,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3119,7 +3081,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3233,7 +3195,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3593,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I30" s="27">
         <v>2</v>
@@ -3614,9 +3576,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3625,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I31" s="27">
         <v>2</v>
@@ -3644,9 +3604,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3655,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I32" s="27">
         <v>2</v>
@@ -3674,9 +3632,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3762,7 +3718,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4115,7 +4071,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5070,7 +5026,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5886,7 +5842,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6702,7 +6658,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7441,9 +7397,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7458,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -7479,9 +7433,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7496,7 +7448,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -7515,9 +7467,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7533,7 +7483,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7554,9 +7504,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7564,7 +7512,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7657,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8430,7 +8378,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8585,7 +8533,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -8604,9 +8552,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8615,7 +8561,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -8636,9 +8582,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8647,7 +8591,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I20" s="27">
         <v>3</v>
@@ -8666,9 +8610,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8754,7 +8696,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9312,7 +9254,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
@@ -1303,7 +1303,9 @@
       <c r="B6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>455</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1337,7 +1339,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>456</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1373,7 +1377,9 @@
       <c r="B8" s="2">
         <v>136</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>457</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1408,7 +1414,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>458</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -1443,7 +1451,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1515,7 +1523,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>337</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1729,7 +1739,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>338</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1934,7 +1946,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>339</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2309,7 +2323,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2381,7 +2395,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>340</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2458,7 +2474,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>459</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>2</v>
@@ -2486,7 +2504,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>460</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>3</v>
@@ -2516,7 +2536,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>461</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>4</v>
@@ -2613,7 +2635,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>341</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2820,7 +2844,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>342</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3195,7 +3221,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3267,7 +3293,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>343</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3479,7 +3507,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>344</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3549,7 +3579,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>462</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3579,7 +3611,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>463</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3607,7 +3641,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>464</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3704,7 +3740,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>345</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4071,7 +4109,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5026,7 +5064,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5842,7 +5880,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6658,7 +6696,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7372,7 +7410,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>448</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7406,7 +7446,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>449</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7442,7 +7484,9 @@
       <c r="B8" s="2">
         <v>134</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>450</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7477,7 +7521,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>451</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -7512,7 +7558,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7584,7 +7630,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>333</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7798,7 +7846,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>334</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8378,7 +8428,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8450,7 +8500,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>335</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8527,7 +8579,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>452</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>2</v>
@@ -8555,7 +8609,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>453</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>3</v>
@@ -8585,7 +8641,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>454</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8682,7 +8740,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>336</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9254,7 +9314,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,19 +252,37 @@
     <t>IF</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>HTML &amp; CSS</t>
   </si>
   <si>
+    <t>F1</t>
+  </si>
+  <si>
     <t>Javascript I</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>D, B1, B4</t>
   </si>
   <si>
     <t>Gegevensrepresentatie &amp; Ontwerp</t>
   </si>
   <si>
+    <t>A1, A2, B2, C3, C4, E1, F1, F2, K1</t>
+  </si>
+  <si>
     <t>Databases</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>De domeinen A12 en A13 zijn niet specifiek aan een PTA-onderdeel gekoppeld maar komen gedurende het jaar aan de orde.</t>
@@ -272,16 +291,28 @@
     <t>Computational Science</t>
   </si>
   <si>
+    <t>A5, A6, A7, B3, R, J</t>
+  </si>
+  <si>
     <t>Security</t>
   </si>
   <si>
+    <t>A11, N, E, F3, F4, L4, Q3</t>
+  </si>
+  <si>
     <t>Keuzeproject</t>
+  </si>
+  <si>
+    <t>A3, A4, A8, A9, A10</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
     <t>OO Gamedesign</t>
+  </si>
+  <si>
+    <t>J, P, B3, F1</t>
   </si>
   <si>
     <t>Project Data</t>
@@ -1213,12 +1244,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1240,25 +1271,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>IF leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>14</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1300,35 +1327,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2">
-        <v>455</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1336,37 +1353,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>456</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>60</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1374,35 +1379,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>136</v>
-      </c>
-      <c r="D8" s="2">
-        <v>457</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1412,36 +1407,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>458</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>50</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1451,7 +1436,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1518,17 +1503,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>337</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1543,11 +1526,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>79</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1562,7 +1543,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>IF leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1739,12 +1720,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>338</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1769,7 +1748,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>IF leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1946,12 +1925,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>339</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2025,44 +2002,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2126,7 +2065,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2157,7 +2096,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>IF leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>IF leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2209,84 +2148,118 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="2">
+        <v>455</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>456</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="27">
+        <v>60</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>137</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="D8" s="2">
+        <v>457</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>2</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -2294,28 +2267,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>458</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>50</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -2323,7 +2308,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2390,17 +2375,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2415,9 +2400,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2432,7 +2419,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>IF leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>IF leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2474,94 +2461,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>459</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>2</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>460</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>3</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>461</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>4</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -2636,11 +2597,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2650,9 +2611,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>79</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2667,7 +2626,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>IF leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>IF leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2845,11 +2804,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2982,6 +2941,910 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>IF leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>137</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>340</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>IF leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>459</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>2</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>460</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>3</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>461</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>4</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>341</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>IF leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>342</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3107,7 +3970,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3221,7 +4084,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3587,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I30" s="27">
         <v>2</v>
@@ -3606,9 +4469,11 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3619,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I31" s="27">
         <v>2</v>
@@ -3638,7 +4503,9 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32"/>
+      <c r="P31" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3649,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I32" s="27">
         <v>2</v>
@@ -3668,7 +4535,9 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32"/>
+      <c r="P32" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3756,7 +4625,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4109,7 +4978,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5064,7 +5933,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5880,7 +6749,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6504,12 +7373,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6531,6 +7400,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>IF leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>331</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>IF leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>332</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>IF leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6696,7 +8430,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7276,912 +9010,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>IF leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>448</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>2</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>449</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>60</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>2</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>134</v>
-      </c>
-      <c r="D8" s="2">
-        <v>450</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>2</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>451</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>50</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>2</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>333</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>IF leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>334</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>IF leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8231,7 +9059,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8262,7 +9090,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>IF leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>IF leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8314,84 +9142,118 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>448</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>449</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="27">
+        <v>60</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>135</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D8" s="2">
+        <v>450</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>2</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8399,28 +9261,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>451</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>50</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8428,7 +9302,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8495,17 +9369,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8520,9 +9394,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8537,7 +9413,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>IF leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>IF leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8579,94 +9455,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>452</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>2</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>453</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>3</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>454</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="27">
-        <v>3</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8741,11 +9591,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8755,9 +9605,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>79</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8772,7 +9620,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>IF leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>IF leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8952,7 +9800,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9122,12 +9970,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9149,21 +9997,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>IF leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>14</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9205,7 +10057,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9231,7 +10085,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9257,7 +10113,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>135</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9285,7 +10143,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9314,7 +10172,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9381,15 +10239,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>335</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9404,7 +10264,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9421,7 +10281,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>IF leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9463,70 +10323,102 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>452</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="27">
+        <v>2</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>453</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
+      <c r="G19" s="27">
+        <v>3</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>454</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="27">
+        <v>3</v>
+      </c>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9598,10 +10490,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>336</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9611,7 +10505,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9626,7 +10522,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>IF leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9806,7 +10702,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9880,6 +10776,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809027778</v>
+        <v>44341.376400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2287,7 +2287,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809027778</v>
+        <v>44341.376400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3413,7 +3413,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809027778</v>
+        <v>44341.376400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4525,7 +4525,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809027778</v>
+        <v>44341.376400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5605,7 +5605,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809027778</v>
+        <v>44341.376400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6733,7 +6733,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809027778</v>
+        <v>44341.376400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7847,7 +7847,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809027778</v>
+        <v>44341.376400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8961,7 +8961,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
@@ -825,13 +825,40 @@
     <t>H</t>
   </si>
   <si>
+    <t>HTML &amp; CSS</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
     <t>startJaar</t>
+  </si>
+  <si>
+    <t>Javascript I</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>D, B1, B4</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Gegevensrepresentatie &amp; Ontwerp</t>
+  </si>
+  <si>
+    <t>A1, A2, B2, C3, C4, E1, F1, F2, K1</t>
+  </si>
+  <si>
     <t>eindJaar</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>vandaag</t>
@@ -850,33 +877,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>HTML &amp; CSS</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Javascript I</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>D, B1, B4</t>
-  </si>
-  <si>
-    <t>Gegevensrepresentatie &amp; Ontwerp</t>
-  </si>
-  <si>
-    <t>A1, A2, B2, C3, C4, E1, F1, F2, K1</t>
-  </si>
-  <si>
-    <t>Databases</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>De domeinen A12 en A13 zijn niet specifiek aan een PTA-onderdeel gekoppeld maar komen gedurende het jaar aan de orde.</t>
@@ -2264,127 +2264,173 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>842</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>2</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>843</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="23">
+        <v>60</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>221</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>844</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>2</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>845</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38244213</v>
+        <v>44342.629664352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2411,7 +2457,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2442,7 +2488,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2463,7 +2509,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2493,7 +2539,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2514,7 +2560,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3351,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>2</v>
@@ -3371,13 +3417,13 @@
         <v>11</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3391,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -3400,7 +3446,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L7" s="43">
         <v>60</v>
@@ -3415,13 +3461,13 @@
         <v>8</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>134</v>
@@ -3435,7 +3481,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I8" s="43">
         <v>2</v>
@@ -3455,13 +3501,13 @@
         <v>11</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3476,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I9" s="43">
         <v>2</v>
@@ -3498,17 +3544,17 @@
         <v>8</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38244213</v>
+        <v>44342.629664352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3535,7 +3581,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3566,7 +3612,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3587,7 +3633,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3617,7 +3663,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3640,7 +3686,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3721,75 +3767,107 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>839</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>2</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>840</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>3</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>841</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -4493,7 +4571,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4523,7 +4601,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>135</v>
@@ -4553,7 +4631,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4584,11 +4662,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38244213</v>
+        <v>44342.629664352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4615,7 +4693,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4646,7 +4724,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4667,7 +4745,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4697,7 +4775,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4718,7 +4796,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5580,127 +5658,173 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>852</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>2</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>853</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="23">
+        <v>60</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>222</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>854</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>2</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>855</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38244213</v>
+        <v>44342.629664352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5727,7 +5851,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5758,7 +5882,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5779,7 +5903,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5809,7 +5933,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5830,7 +5954,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6669,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>2</v>
@@ -6689,13 +6813,13 @@
         <v>11</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6709,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -6718,7 +6842,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L7" s="43">
         <v>60</v>
@@ -6733,13 +6857,13 @@
         <v>8</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>136</v>
@@ -6753,7 +6877,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I8" s="43">
         <v>2</v>
@@ -6773,13 +6897,13 @@
         <v>11</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6794,7 +6918,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I9" s="43">
         <v>2</v>
@@ -6816,17 +6940,17 @@
         <v>8</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38244213</v>
+        <v>44342.629664352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6853,7 +6977,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6884,7 +7008,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6905,7 +7029,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6935,7 +7059,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -6958,7 +7082,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7039,75 +7163,107 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>849</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>2</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>850</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>3</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>851</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>4</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -7813,7 +7969,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7843,7 +7999,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>137</v>
@@ -7873,7 +8029,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7904,11 +8060,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38244213</v>
+        <v>44342.629664352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7935,7 +8091,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7966,7 +8122,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7987,7 +8143,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8017,7 +8173,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8038,7 +8194,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8423,75 +8579,107 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>846</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="23"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="23">
+        <v>2</v>
+      </c>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>50</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>2</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>847</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="23"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="23">
+        <v>2</v>
+      </c>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>848</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="23">
+        <v>2</v>
+      </c>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>3</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -8927,7 +9115,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -8957,7 +9145,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>138</v>
@@ -8987,7 +9175,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9018,11 +9206,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.38244213</v>
+        <v>44342.629664352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9049,7 +9237,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9080,7 +9268,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9101,7 +9289,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9131,7 +9319,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9152,7 +9340,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/IF PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>HTML &amp; CSS</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>F1</t>
@@ -2375,10 +2378,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2456,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2465,7 +2468,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="45">
         <v>60</v>
@@ -2477,10 +2480,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2545,7 +2548,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>221</v>
@@ -2558,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2575,10 +2578,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2657,7 +2660,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2676,10 +2679,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2744,11 +2747,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2922,7 +2925,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2984,14 +2987,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4659,10 +4662,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4740,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4749,7 +4752,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="45">
         <v>60</v>
@@ -4761,10 +4764,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4829,7 +4832,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>134</v>
@@ -4842,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4859,10 +4862,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -4927,7 +4930,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4941,7 +4944,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -4960,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5028,11 +5031,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5206,7 +5209,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5229,7 +5232,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5268,14 +5271,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5300,7 +5303,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5406,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -5423,10 +5426,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5498,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -5517,10 +5520,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5592,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -5609,10 +5612,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5971,7 +5974,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7035,7 +7038,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7123,7 +7126,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>135</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7300,11 +7303,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7389,7 +7392,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7478,7 +7481,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7501,7 +7504,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7540,7 +7543,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7676,7 +7679,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -7693,10 +7696,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7768,7 +7771,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -7787,10 +7790,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7862,7 +7865,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -7879,10 +7882,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8241,7 +8244,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9220,7 +9223,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2">
         <v>852</v>
@@ -9247,10 +9250,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9315,7 +9318,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9328,7 +9331,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9337,7 +9340,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="45">
         <v>60</v>
@@ -9349,10 +9352,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9417,7 +9420,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>222</v>
@@ -9430,7 +9433,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -9447,10 +9450,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9515,7 +9518,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9529,7 +9532,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9548,10 +9551,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9616,11 +9619,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9705,7 +9708,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9794,7 +9797,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9817,7 +9820,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9856,14 +9859,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9888,7 +9891,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11506,7 +11509,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2">
         <v>455</v>
@@ -11533,10 +11536,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11601,7 +11604,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11614,7 +11617,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11623,7 +11626,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="45">
         <v>60</v>
@@ -11635,10 +11638,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11703,7 +11706,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>136</v>
@@ -11716,7 +11719,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11733,10 +11736,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11801,7 +11804,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11815,7 +11818,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11834,10 +11837,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -11902,11 +11905,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11991,7 +11994,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12080,7 +12083,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12103,7 +12106,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12142,14 +12145,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12174,7 +12177,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12280,7 +12283,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12297,10 +12300,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -12372,7 +12375,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12391,10 +12394,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12466,7 +12469,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12483,7 +12486,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>62</v>
@@ -12845,7 +12848,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -13826,7 +13829,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13999,7 +14002,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>137</v>
@@ -14087,7 +14090,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14176,11 +14179,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14265,7 +14268,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14354,7 +14357,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14377,7 +14380,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14416,7 +14419,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14446,7 +14449,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14552,7 +14555,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14569,10 +14572,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14644,7 +14647,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14663,10 +14666,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14738,7 +14741,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14755,7 +14758,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>62</v>
@@ -15117,7 +15120,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15241,7 +15244,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I30" s="45">
         <v>2</v>
@@ -15258,10 +15261,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15333,7 +15336,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I31" s="45">
         <v>1</v>
@@ -15350,10 +15353,10 @@
         <v>1</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15425,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" s="45">
         <v>2</v>
@@ -15442,10 +15445,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15774,7 +15777,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16130,7 +16133,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16215,7 +16218,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16303,7 +16306,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>138</v>
@@ -16391,7 +16394,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16480,11 +16483,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16569,7 +16572,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16658,7 +16661,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16681,7 +16684,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16720,7 +16723,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16750,7 +16753,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17511,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I30" s="45">
         <v>2</v>
@@ -17530,10 +17533,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17605,7 +17608,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31" s="45">
         <v>2</v>
@@ -17622,10 +17625,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17697,7 +17700,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I32" s="45">
         <v>3</v>
@@ -17714,10 +17717,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18046,7 +18049,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
